--- a/Data Collection/Authors/Martin R. Dean/Dean_all_2021.xlsx
+++ b/Data Collection/Authors/Martin R. Dean/Dean_all_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\Data Collection\Authors\Martin R. Dean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissTribeleaders/Data Collection/Authors/Martin R. Dean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E72C4B0-162B-4A60-96B3-1EE9ED99DAD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{1E72C4B0-162B-4A60-96B3-1EE9ED99DAD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F2A82C22-1421-421C-A553-A7C2F6E98BD8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
   <si>
     <t>title</t>
   </si>
@@ -36,18 +36,12 @@
     <t>date</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
     <t>link</t>
   </si>
   <si>
-    <t>img</t>
-  </si>
-  <si>
     <t>summary</t>
   </si>
   <si>
@@ -57,16 +51,10 @@
     <t>Süddeutsche Zeitung</t>
   </si>
   <si>
-    <t>4 Jan 2021</t>
-  </si>
-  <si>
     <t>Es ist Zeit, endlich ein Behältnis zu würdigen, das von den Kunst- und Designmuseen schlicht ignoriert wird: das Impfstoff-Fläschchen. Von Martin Zips.</t>
   </si>
   <si>
     <t>https://www.sueddeutsche.de/panorama/corona-impfstoff-flaeschchen-design-1.5164786</t>
-  </si>
-  <si>
-    <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///////yH5BAEKAAEALAAAAAABAAEAAAICTAEAOw==</t>
   </si>
   <si>
     <t>Es ist Zeit, endlich ein Behältnis zu würdigen, das von den Kunst- und Designmuseen schlicht ignoriert wird: das Impfstoff-Fläschchen.
@@ -82,9 +70,6 @@
     <t>Tages-Anzeiger</t>
   </si>
   <si>
-    <t>3 Jan 2021</t>
-  </si>
-  <si>
     <t>Martin R. Dean: «Falsches Quartett». An einer Schweizer Schule verliebt sich ein Deutschlehrer in seine Schülerin, sie ist für Literatur empfänglich. Inzwischen ...</t>
   </si>
   <si>
@@ -104,9 +89,6 @@
     <t>NZZ</t>
   </si>
   <si>
-    <t>24 Jan 2021</t>
-  </si>
-  <si>
     <t>Und zugleich wird es entzaubert vom schlichten Funktionieren der Organe. Martin R. Dean 24.01.2021, 20.30 Uhr.</t>
   </si>
   <si>
@@ -126,9 +108,6 @@
     <t>Perlentaucher</t>
   </si>
   <si>
-    <t>25 Jan 2021</t>
-  </si>
-  <si>
     <t>Weitere Artikel: In der NZZ berichtet der Schriftsteller Martin R. Dean davon, wie ihm beim Blick in einen geöffneten Körper - für Recherchezwecke hatte er sich ...</t>
   </si>
   <si>
@@ -148,9 +127,6 @@
     <t>Basler Zeitung</t>
   </si>
   <si>
-    <t>30 Jan 2021</t>
-  </si>
-  <si>
     <t>Dass dies mehr als eine rhetorische Frage ist, zeigt ein Vorfall, den der Schriftsteller Martin R. Dean letztes Jahr in der WOZ beschrieb. Dean, dessen Vater aus ...</t>
   </si>
   <si>
@@ -170,9 +146,6 @@
     <t>St. Galler Tagblatt</t>
   </si>
   <si>
-    <t>7 Feb 2021</t>
-  </si>
-  <si>
     <t>Aus Innerrhoden hätte es entsprechend 0,16 Standesstimmen für und 0,34 gegen die Initiative gegeben. Linke schlägt Veränderungen vor. Martin Pfister, ...</t>
   </si>
   <si>
@@ -189,9 +162,6 @@
     <t>Bühne - Pandemie sei dank: Die Schweiz ist gleich mit drei Stücken am Berliner Theatertreffen vertreten</t>
   </si>
   <si>
-    <t>9 Feb 2021</t>
-  </si>
-  <si>
     <t>Martin R. Dean. Genderstern und People of Color: Damit neue Begrifflichkeiten romantauglich werden, muss die Aufklärung dringend über den Gebrauch von ...</t>
   </si>
   <si>
@@ -208,9 +178,6 @@
     <t>Milchmänner in St.Gallen - «Es ist ein Auslaufmodell geworden»: Der letzte Milchmann in der Stadt St.Gallen gibt jetzt auch noch sein Geschäft auf</t>
   </si>
   <si>
-    <t>1 Feb 2021</t>
-  </si>
-  <si>
     <t>https://www.tagblatt.ch/ostschweiz/stgallen/milchmaenner-in-stgallen-es-ist-ein-auslaufmodell-geworden-der-letzte-milchmann-in-der-stadt-stgallen-gibt-jetzt-auch-noch-sein-geschaeft-auf-ld.2089830</t>
   </si>
   <si>
@@ -221,9 +188,6 @@
   </si>
   <si>
     <t>Luzerner Zeitung</t>
-  </si>
-  <si>
-    <t>25 Feb 2021</t>
   </si>
   <si>
     <t>... Zürich; Hanspeter Müller-Drossaart, Autor/Schauspieler, Dietikon; Esther Schneider, Leiterin Literaturredaktion SRF, Baden; Martin R. Dean, Autor, Basel.</t>
@@ -242,9 +206,6 @@
     <t>Hip-Hop - Zwei Swiss-Music-Awards-Nominationen und ein Debütalbum: Der St.Galler Monet192 ist auf dem Weg zum Star</t>
   </si>
   <si>
-    <t>22 Feb 2021</t>
-  </si>
-  <si>
     <t>https://www.tagblatt.ch/kultur/hip-hop-zwei-swiss-music-awards-nominationen-und-ein-debuetalbum-der-stgaller-monet192-ist-auf-dem-weg-zum-star-ld.2105136</t>
   </si>
   <si>
@@ -258,9 +219,6 @@
     <t>Buchs - Pfadi Alvier ist nach langer Coronapause wieder aktiv und feiert Jubiläum</t>
   </si>
   <si>
-    <t>24 Feb 2021</t>
-  </si>
-  <si>
     <t>https://www.tagblatt.ch/ostschweiz/werdenberg/pfadi-ist-wieder-aktiv-und-feiert-jubilaum-ld.2106392</t>
   </si>
   <si>
@@ -274,9 +232,6 @@
     <t>Selbstunfall - Video zeigt Chaosfahrt durch St.Gallen: Stadtpolizei sucht Zeugen</t>
   </si>
   <si>
-    <t>1 month ago</t>
-  </si>
-  <si>
     <t>https://www.tagblatt.ch/ostschweiz/stgallen/selbstunfall-chaosfahrt-endet-an-der-zuercher-strasse-stadtpolizei-stgallen-sucht-zeugen-ld.2115574</t>
   </si>
   <si>
@@ -306,9 +261,6 @@
     <t>Bieler Tagblatt</t>
   </si>
   <si>
-    <t>4 weeks ago</t>
-  </si>
-  <si>
     <t>Über den Identitäts-Diskurs tauschen sich der Autor Martin R. Dean mit seinen Kolleginnen Dorothee Elmiger und Léonora Miano aus Kamerun sowie der ...</t>
   </si>
   <si>
@@ -373,9 +325,6 @@
     <t>Solothurner Zeitung</t>
   </si>
   <si>
-    <t>4 days ago</t>
-  </si>
-  <si>
     <t>... die Aufklärung dringend über den Gebrauch von Fachsprache hinaus vorangetrieben werden, schreibt der Autor Martin R. Dean. Martin R. Dean 07.05.2021, ...</t>
   </si>
   <si>
@@ -387,6 +336,9 @@
 Die Zeit wird zeigen, welche dieser Neuerungen, die wie Eisbrecher auf unser Bewusstsein wirken, sich durchsetzen werden.
 Sie ist das Gegenteil vom Sprechen in Grossbuchstaben.
 Zwar kann sie sich durch dieses bereichern lassen, aber ohne die Kraft der gesprochenen Sprache bleibt sie papieren.</t>
+  </si>
+  <si>
+    <t>flag</t>
   </si>
 </sst>
 </file>
@@ -394,7 +346,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="d/m/yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -441,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -464,25 +416,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -765,26 +734,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -796,523 +765,446 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="8">
+        <v>44200</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9">
+        <v>44199</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9">
+        <v>44220</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9">
+        <v>44221</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9">
+        <v>44226</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="8">
+        <v>44234</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="8">
+        <v>44236</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="F8" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="5" t="s">
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="8">
+        <v>44228</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="9">
+        <v>44252</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="8">
+        <v>44249</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8">
+        <v>44251</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="8">
+        <v>44297.967385170719</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="8">
+        <v>44297.967385193857</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="G14" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="7">
-        <v>44297.967385170719</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="7">
-        <v>44297.967385193857</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="3">
+        <v>61</v>
+      </c>
+      <c r="D15" s="9">
         <v>44299.967019656513</v>
       </c>
-      <c r="F15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="9">
+        <v>44297.967019691227</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="3">
-        <v>44297.967019691227</v>
-      </c>
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="B17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="8">
         <v>44297.967019725947</v>
       </c>
+      <c r="E17" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+        <v>71</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="B18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="8">
         <v>44297.967019760697</v>
       </c>
+      <c r="E18" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="3">
+        <v>77</v>
+      </c>
+      <c r="D19" s="9">
         <v>44323.966305595473</v>
       </c>
-      <c r="F19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>97</v>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{F9A4D0CB-EDE7-4968-B5E9-FCA6411E0F9B}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{FC834E9F-54C8-4323-88FA-5B47817DFC39}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{E2E4C619-A12E-465E-AF84-74A612A8ABE0}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{651870F0-3CA8-4730-9DAA-DD9EF5810813}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{DEA5745F-A367-4B7F-B855-42C3AD1C7C55}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{6FD3595C-0B88-4184-B06A-7C910EFDA69E}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{43207362-3A0A-48A3-B506-4F4A7637BC7F}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{5DA566FD-DE01-4FD4-BEEE-F790DC865701}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{96676021-B1AF-4677-9D81-20DAE26EA3BF}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{637C8813-65DA-4929-A516-653D1DBDA485}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{2AF43D8B-D6ED-4654-9D1D-E09EEBFF1547}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{A50BA381-A97D-4905-B4C7-2973C2821851}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{B54A1996-4FCE-4B28-92D4-6313DD42DF57}"/>
-    <hyperlink ref="G15" r:id="rId14" xr:uid="{1275FB08-AD96-4067-A610-A61FD41DD96B}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{87119A7C-8565-453F-AA92-4D383944989E}"/>
-    <hyperlink ref="G17" r:id="rId16" xr:uid="{69625081-AA2F-4DF3-8B30-A748DFD9140F}"/>
-    <hyperlink ref="G18" r:id="rId17" xr:uid="{81E82DAA-DF76-44E9-9728-B62E73D7AE75}"/>
-    <hyperlink ref="G19" r:id="rId18" xr:uid="{21D14B75-05FB-4092-9C61-A16F530B2517}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{F9A4D0CB-EDE7-4968-B5E9-FCA6411E0F9B}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{FC834E9F-54C8-4323-88FA-5B47817DFC39}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{E2E4C619-A12E-465E-AF84-74A612A8ABE0}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{651870F0-3CA8-4730-9DAA-DD9EF5810813}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{DEA5745F-A367-4B7F-B855-42C3AD1C7C55}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{6FD3595C-0B88-4184-B06A-7C910EFDA69E}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{43207362-3A0A-48A3-B506-4F4A7637BC7F}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{5DA566FD-DE01-4FD4-BEEE-F790DC865701}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{96676021-B1AF-4677-9D81-20DAE26EA3BF}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{637C8813-65DA-4929-A516-653D1DBDA485}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{2AF43D8B-D6ED-4654-9D1D-E09EEBFF1547}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{A50BA381-A97D-4905-B4C7-2973C2821851}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{B54A1996-4FCE-4B28-92D4-6313DD42DF57}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{1275FB08-AD96-4067-A610-A61FD41DD96B}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{87119A7C-8565-453F-AA92-4D383944989E}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{69625081-AA2F-4DF3-8B30-A748DFD9140F}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{81E82DAA-DF76-44E9-9728-B62E73D7AE75}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{21D14B75-05FB-4092-9C61-A16F530B2517}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId19"/>
 </worksheet>
 </file>